--- a/data/trans_orig/P14A18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A18-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6DE9619-C4CA-426B-8D7A-0F8458066298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADD7F622-29A0-44E8-91A5-A3B6D076FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5BA8782E-BC5F-47F3-9742-FB85DACDFA71}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2A0C93F3-712D-41EC-B6D5-D2F56CA0790B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="227">
   <si>
     <t>Población que recibe medicación o terapia por mala circulación en 2012 (Tasa respuesta: 6,36%)</t>
   </si>
@@ -84,154 +84,160 @@
     <t>61,56%</t>
   </si>
   <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
     <t>29,52%</t>
   </si>
   <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
   </si>
   <si>
     <t>24,87%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -240,22 +246,22 @@
     <t>91,56%</t>
   </si>
   <si>
-    <t>57,43%</t>
+    <t>62,17%</t>
   </si>
   <si>
     <t>74,56%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>68,43%</t>
+    <t>67,63%</t>
   </si>
   <si>
     <t>87,65%</t>
@@ -264,16 +270,16 @@
     <t>8,44%</t>
   </si>
   <si>
-    <t>42,57%</t>
+    <t>37,83%</t>
   </si>
   <si>
     <t>25,44%</t>
   </si>
   <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
   </si>
   <si>
     <t>20,62%</t>
@@ -282,7 +288,7 @@
     <t>12,35%</t>
   </si>
   <si>
-    <t>31,57%</t>
+    <t>32,37%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -291,103 +297,103 @@
     <t>91,45%</t>
   </si>
   <si>
-    <t>72,97%</t>
+    <t>73,04%</t>
   </si>
   <si>
     <t>74,63%</t>
   </si>
   <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
   </si>
   <si>
     <t>77,56%</t>
   </si>
   <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>27,03%</t>
+    <t>26,96%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
   </si>
   <si>
     <t>89,26%</t>
   </si>
   <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>72,35%</t>
   </si>
   <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
   </si>
   <si>
     <t>10,74%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -399,49 +405,49 @@
     <t>68,53%</t>
   </si>
   <si>
-    <t>25,75%</t>
+    <t>25,52%</t>
   </si>
   <si>
     <t>52,18%</t>
   </si>
   <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>60,34%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>31,47%</t>
   </si>
   <si>
-    <t>74,25%</t>
+    <t>74,48%</t>
   </si>
   <si>
     <t>47,82%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
   </si>
   <si>
     <t>39,66%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
   </si>
   <si>
     <t>82,78%</t>
@@ -456,19 +462,19 @@
     <t>76,57%</t>
   </si>
   <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>78,18%</t>
   </si>
   <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>17,22%</t>
@@ -483,25 +489,25 @@
     <t>23,43%</t>
   </si>
   <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>70,78%</t>
+    <t>72,1%</t>
   </si>
   <si>
     <t>96,8%</t>
@@ -510,19 +516,19 @@
     <t>78,49%</t>
   </si>
   <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
   </si>
   <si>
     <t>81,32%</t>
   </si>
   <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>11,14%</t>
@@ -531,151 +537,151 @@
     <t>3,2%</t>
   </si>
   <si>
-    <t>29,22%</t>
+    <t>27,9%</t>
   </si>
   <si>
     <t>21,51%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
   </si>
   <si>
     <t>71,41%</t>
   </si>
   <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>76,6%</t>
   </si>
   <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
   </si>
   <si>
     <t>75,41%</t>
   </si>
   <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
   </si>
   <si>
     <t>28,59%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
   </si>
   <si>
     <t>23,4%</t>
   </si>
   <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
   </si>
   <si>
     <t>24,59%</t>
   </si>
   <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
   </si>
   <si>
     <t>59,27%</t>
   </si>
   <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
   </si>
   <si>
     <t>68,66%</t>
   </si>
   <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
   </si>
   <si>
     <t>66,96%</t>
   </si>
   <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
   </si>
   <si>
     <t>40,73%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
   </si>
   <si>
     <t>31,34%</t>
   </si>
   <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
   </si>
   <si>
     <t>33,04%</t>
   </si>
   <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
   </si>
   <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>74,02%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
   </si>
   <si>
     <t>74,53%</t>
@@ -684,31 +690,31 @@
     <t>69,59%</t>
   </si>
   <si>
-    <t>79,42%</t>
+    <t>79,39%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>20,58%</t>
+    <t>20,61%</t>
   </si>
   <si>
     <t>30,41%</t>
@@ -1123,7 +1129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E752002A-B172-4373-8FB0-A46B6240F725}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59378245-F467-4306-B857-80A80A7BEAC5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1572,13 +1578,13 @@
         <v>74202</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>98</v>
@@ -1587,13 +1593,13 @@
         <v>106491</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,13 +1614,13 @@
         <v>4178</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -1623,13 +1629,13 @@
         <v>31077</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -1638,13 +1644,13 @@
         <v>35256</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,7 +1706,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1712,10 +1718,10 @@
         <v>21941</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1727,13 +1733,13 @@
         <v>45094</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -1742,13 +1748,13 @@
         <v>67034</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,13 +1769,13 @@
         <v>2023</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -1778,13 +1784,13 @@
         <v>15384</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -1793,13 +1799,13 @@
         <v>17408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1855,7 +1861,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1867,10 +1873,10 @@
         <v>21243</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1882,13 +1888,13 @@
         <v>82165</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>100</v>
@@ -1897,13 +1903,13 @@
         <v>103407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,13 +1924,13 @@
         <v>1985</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -1933,13 +1939,13 @@
         <v>27930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -1948,13 +1954,13 @@
         <v>29916</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2022,13 +2028,13 @@
         <v>93599</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>231</v>
@@ -2037,13 +2043,13 @@
         <v>250204</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>317</v>
@@ -2052,13 +2058,13 @@
         <v>343802</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,13 +2079,13 @@
         <v>11256</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>87</v>
@@ -2088,13 +2094,13 @@
         <v>95628</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -2103,13 +2109,13 @@
         <v>106885</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2165,7 +2171,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2186,7 +2192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53356D8A-8899-4B13-BAC2-2D606EE61043}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636822AB-85E8-4C61-A335-C515B0D8FE0C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2203,7 +2209,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2310,10 +2316,10 @@
         <v>4851</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2325,13 +2331,13 @@
         <v>3704</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2340,13 +2346,13 @@
         <v>8555</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,13 +2367,13 @@
         <v>2228</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -2376,13 +2382,13 @@
         <v>3394</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -2391,13 +2397,13 @@
         <v>5622</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,13 +2471,13 @@
         <v>13088</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -2480,13 +2486,13 @@
         <v>34777</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -2495,13 +2501,13 @@
         <v>47865</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,13 +2522,13 @@
         <v>2722</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -2531,13 +2537,13 @@
         <v>10640</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -2546,13 +2552,13 @@
         <v>13362</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2626,13 @@
         <v>21814</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -2635,13 +2641,13 @@
         <v>51386</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -2650,13 +2656,13 @@
         <v>73199</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2671,13 +2677,13 @@
         <v>2734</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -2686,13 +2692,13 @@
         <v>14084</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -2701,13 +2707,13 @@
         <v>16818</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,7 +2769,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2775,13 +2781,13 @@
         <v>12491</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -2790,13 +2796,13 @@
         <v>45311</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -2805,13 +2811,13 @@
         <v>57802</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2826,13 +2832,13 @@
         <v>5001</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -2841,13 +2847,13 @@
         <v>13844</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -2856,13 +2862,13 @@
         <v>18845</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,7 +2924,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2930,13 +2936,13 @@
         <v>9947</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -2945,13 +2951,13 @@
         <v>52173</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -2960,13 +2966,13 @@
         <v>62120</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2987,13 @@
         <v>6836</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -2996,13 +3002,13 @@
         <v>23810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -3011,13 +3017,13 @@
         <v>30646</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3091,13 @@
         <v>62191</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>162</v>
@@ -3100,13 +3106,13 @@
         <v>187350</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>225</v>
@@ -3115,13 +3121,13 @@
         <v>249541</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3142,13 @@
         <v>19521</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -3151,13 +3157,13 @@
         <v>65773</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>78</v>
@@ -3166,13 +3172,13 @@
         <v>85294</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,7 +3234,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A18-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A18-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADD7F622-29A0-44E8-91A5-A3B6D076FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5597374A-C4C4-4BC5-9CB8-CC2C1E54C5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2A0C93F3-712D-41EC-B6D5-D2F56CA0790B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{22236FB2-4005-4204-A093-D02A67DCDE6A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="225">
   <si>
     <t>Población que recibe medicación o terapia por mala circulación en 2012 (Tasa respuesta: 6,36%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -75,7 +75,7 @@
     <t>76,59%</t>
   </si>
   <si>
-    <t>25,26%</t>
+    <t>0,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -87,16 +87,16 @@
     <t>33,28%</t>
   </si>
   <si>
-    <t>85,41%</t>
+    <t>85,68%</t>
   </si>
   <si>
     <t>64,53%</t>
   </si>
   <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,16 +105,10 @@
     <t>23,41%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
     <t>38,44%</t>
   </si>
   <si>
-    <t>14,59%</t>
+    <t>14,32%</t>
   </si>
   <si>
     <t>66,72%</t>
@@ -123,172 +117,172 @@
     <t>35,47%</t>
   </si>
   <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>87,2%</t>
   </si>
   <si>
-    <t>62,45%</t>
+    <t>62,49%</t>
   </si>
   <si>
     <t>71,63%</t>
   </si>
   <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
   </si>
   <si>
     <t>75,37%</t>
   </si>
   <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>37,55%</t>
+    <t>37,51%</t>
   </si>
   <si>
     <t>28,37%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>88,54%</t>
   </si>
   <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
   </si>
   <si>
     <t>70,48%</t>
   </si>
   <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
   </si>
   <si>
     <t>75,13%</t>
   </si>
   <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
   </si>
   <si>
     <t>29,52%</t>
   </si>
   <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
   </si>
   <si>
     <t>24,87%</t>
   </si>
   <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>91,56%</t>
   </si>
   <si>
-    <t>62,17%</t>
+    <t>60,77%</t>
   </si>
   <si>
     <t>74,56%</t>
   </si>
   <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
   </si>
   <si>
     <t>8,44%</t>
   </si>
   <si>
-    <t>37,83%</t>
+    <t>39,23%</t>
   </si>
   <si>
     <t>25,44%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -297,427 +291,427 @@
     <t>91,45%</t>
   </si>
   <si>
-    <t>73,04%</t>
+    <t>73,09%</t>
   </si>
   <si>
     <t>74,63%</t>
   </si>
   <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
   </si>
   <si>
     <t>77,56%</t>
   </si>
   <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
   </si>
   <si>
     <t>8,55%</t>
   </si>
   <si>
-    <t>26,96%</t>
+    <t>26,91%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
   </si>
   <si>
     <t>22,44%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
   </si>
   <si>
     <t>89,26%</t>
   </si>
   <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>72,35%</t>
   </si>
   <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>10,74%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por mala circulación en 2015 (Tasa respuesta: 4,61%)</t>
+    <t>Población que recibe medicación o terapia por mala circulación en 2016 (Tasa respuesta: 4,61%)</t>
   </si>
   <si>
     <t>68,53%</t>
   </si>
   <si>
-    <t>25,52%</t>
+    <t>26,37%</t>
   </si>
   <si>
     <t>52,18%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>60,34%</t>
   </si>
   <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
   </si>
   <si>
     <t>31,47%</t>
   </si>
   <si>
-    <t>74,48%</t>
+    <t>73,63%</t>
   </si>
   <si>
     <t>47,82%</t>
   </si>
   <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>39,66%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
   </si>
   <si>
     <t>82,78%</t>
   </si>
   <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
   </si>
   <si>
     <t>76,57%</t>
   </si>
   <si>
-    <t>61,83%</t>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
   </si>
   <si>
     <t>88,85%</t>
   </si>
   <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
+    <t>28,66%</t>
   </si>
   <si>
     <t>71,41%</t>
   </si>
   <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
   </si>
   <si>
     <t>76,6%</t>
   </si>
   <si>
-    <t>63,43%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
   </si>
   <si>
     <t>75,41%</t>
   </si>
   <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
   </si>
   <si>
     <t>28,59%</t>
   </si>
   <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
   </si>
   <si>
     <t>23,4%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
   </si>
   <si>
     <t>24,59%</t>
   </si>
   <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
   </si>
   <si>
     <t>59,27%</t>
   </si>
   <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
   </si>
   <si>
     <t>68,66%</t>
   </si>
   <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
   </si>
   <si>
     <t>66,96%</t>
   </si>
   <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
   </si>
   <si>
     <t>40,73%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
   </si>
   <si>
     <t>31,34%</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
   </si>
   <si>
     <t>33,04%</t>
   </si>
   <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
   </si>
   <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
   </si>
   <si>
     <t>74,02%</t>
   </si>
   <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
   </si>
   <si>
     <t>74,53%</t>
   </si>
   <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59378245-F467-4306-B857-80A80A7BEAC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCDC7CB-486C-4CC2-9CE5-0D26994626D9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1307,10 +1301,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -1319,13 +1313,13 @@
         <v>5270</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -1334,13 +1328,13 @@
         <v>6058</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1355,13 +1349,13 @@
         <v>3368</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -1370,13 +1364,13 @@
         <v>13710</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>16</v>
@@ -1385,18 +1379,18 @@
         <v>17078</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1408,10 +1402,10 @@
         <v>15546</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -1423,13 +1417,13 @@
         <v>40304</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -1438,13 +1432,13 @@
         <v>55850</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,13 +1453,13 @@
         <v>2281</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
         <v>14</v>
@@ -1474,13 +1468,13 @@
         <v>15966</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -1489,13 +1483,13 @@
         <v>18247</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,13 +1504,13 @@
         <v>17827</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>51</v>
@@ -1525,13 +1519,13 @@
         <v>56270</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>68</v>
@@ -1540,18 +1534,18 @@
         <v>74097</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1563,13 +1557,13 @@
         <v>32290</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -1578,13 +1572,13 @@
         <v>74202</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>98</v>
@@ -1593,13 +1587,13 @@
         <v>106491</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,13 +1608,13 @@
         <v>4178</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>28</v>
@@ -1629,13 +1623,13 @@
         <v>31077</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -1644,13 +1638,13 @@
         <v>35256</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1659,13 @@
         <v>36468</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>96</v>
@@ -1680,13 +1674,13 @@
         <v>105279</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>130</v>
@@ -1695,18 +1689,18 @@
         <v>141747</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1718,10 +1712,10 @@
         <v>21941</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>13</v>
@@ -1733,13 +1727,13 @@
         <v>45094</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -1748,13 +1742,13 @@
         <v>67034</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1763,13 @@
         <v>2023</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -1784,13 +1778,13 @@
         <v>15384</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -1799,13 +1793,13 @@
         <v>17408</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1814,13 @@
         <v>23964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>54</v>
@@ -1835,13 +1829,13 @@
         <v>60478</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>73</v>
@@ -1850,18 +1844,18 @@
         <v>84442</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1873,10 +1867,10 @@
         <v>21243</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1888,13 +1882,13 @@
         <v>82165</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>100</v>
@@ -1903,13 +1897,13 @@
         <v>103407</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1918,13 @@
         <v>1985</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -1939,13 +1933,13 @@
         <v>27930</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -1954,13 +1948,13 @@
         <v>29916</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1969,13 @@
         <v>23228</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
@@ -1990,13 +1984,13 @@
         <v>110095</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>127</v>
@@ -2005,13 +1999,13 @@
         <v>133323</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2028,13 +2022,13 @@
         <v>93599</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>231</v>
@@ -2043,13 +2037,13 @@
         <v>250204</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>317</v>
@@ -2058,13 +2052,13 @@
         <v>343802</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,13 +2073,13 @@
         <v>11256</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H20" s="7">
         <v>87</v>
@@ -2094,13 +2088,13 @@
         <v>95628</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -2109,13 +2103,13 @@
         <v>106885</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2130,13 +2124,13 @@
         <v>104855</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>318</v>
@@ -2145,13 +2139,13 @@
         <v>345832</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>414</v>
@@ -2160,18 +2154,18 @@
         <v>450687</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2192,7 +2186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636822AB-85E8-4C61-A335-C515B0D8FE0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0166043E-27A2-43AE-A9CC-B9688AABF6E6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2209,7 +2203,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2316,10 +2310,10 @@
         <v>4851</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -2331,13 +2325,13 @@
         <v>3704</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -2346,13 +2340,13 @@
         <v>8555</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,13 +2361,13 @@
         <v>2228</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -2382,13 +2376,13 @@
         <v>3394</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -2397,13 +2391,13 @@
         <v>5622</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2418,13 +2412,13 @@
         <v>7079</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -2433,13 +2427,13 @@
         <v>7098</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>14</v>
@@ -2448,18 +2442,18 @@
         <v>14177</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2471,13 +2465,13 @@
         <v>13088</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -2486,13 +2480,13 @@
         <v>34777</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -2501,13 +2495,13 @@
         <v>47865</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,13 +2516,13 @@
         <v>2722</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -2537,13 +2531,13 @@
         <v>10640</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -2552,13 +2546,13 @@
         <v>13362</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2567,13 @@
         <v>15810</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7">
         <v>42</v>
@@ -2588,13 +2582,13 @@
         <v>45417</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="7">
         <v>58</v>
@@ -2603,18 +2597,18 @@
         <v>61227</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2626,13 +2620,13 @@
         <v>21814</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>45</v>
@@ -2641,13 +2635,13 @@
         <v>51386</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>68</v>
@@ -2656,13 +2650,13 @@
         <v>73199</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,13 +2671,13 @@
         <v>2734</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -2692,13 +2686,13 @@
         <v>14084</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -2707,13 +2701,13 @@
         <v>16818</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,13 +2722,13 @@
         <v>24548</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7">
         <v>57</v>
@@ -2743,13 +2737,13 @@
         <v>65470</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="7">
         <v>83</v>
@@ -2758,18 +2752,18 @@
         <v>90017</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2781,13 +2775,13 @@
         <v>12491</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -2796,13 +2790,13 @@
         <v>45311</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -2811,13 +2805,13 @@
         <v>57802</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,13 +2826,13 @@
         <v>5001</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -2847,13 +2841,13 @@
         <v>13844</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>18</v>
@@ -2862,13 +2856,13 @@
         <v>18845</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,13 +2877,13 @@
         <v>17492</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H15" s="7">
         <v>49</v>
@@ -2898,13 +2892,13 @@
         <v>59155</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M15" s="7">
         <v>66</v>
@@ -2913,18 +2907,18 @@
         <v>76647</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2936,13 +2930,13 @@
         <v>9947</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -2951,13 +2945,13 @@
         <v>52173</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>55</v>
@@ -2966,13 +2960,13 @@
         <v>62120</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2981,13 @@
         <v>6836</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>21</v>
@@ -3002,13 +2996,13 @@
         <v>23810</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -3017,13 +3011,13 @@
         <v>30646</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3032,13 @@
         <v>16783</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" s="7">
         <v>66</v>
@@ -3053,13 +3047,13 @@
         <v>75983</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M18" s="7">
         <v>82</v>
@@ -3068,13 +3062,13 @@
         <v>92766</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3085,13 @@
         <v>62191</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>162</v>
@@ -3106,13 +3100,13 @@
         <v>187350</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M19" s="7">
         <v>225</v>
@@ -3121,13 +3115,13 @@
         <v>249541</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3136,13 @@
         <v>19521</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>59</v>
@@ -3157,13 +3151,13 @@
         <v>65773</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>78</v>
@@ -3172,13 +3166,13 @@
         <v>85294</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3187,13 @@
         <v>81712</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>221</v>
@@ -3208,13 +3202,13 @@
         <v>253123</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M21" s="7">
         <v>303</v>
@@ -3223,18 +3217,18 @@
         <v>334835</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
